--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H2">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I2">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J2">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N2">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O2">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P2">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q2">
-        <v>5.012616102721666</v>
+        <v>11.13402574003</v>
       </c>
       <c r="R2">
-        <v>45.113544924495</v>
+        <v>100.20623166027</v>
       </c>
       <c r="S2">
-        <v>0.02633831519655691</v>
+        <v>0.02362634179020275</v>
       </c>
       <c r="T2">
-        <v>0.02633831519655692</v>
+        <v>0.02362634179020275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H3">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I3">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J3">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.354819</v>
       </c>
       <c r="O3">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P3">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q3">
-        <v>29.23275950206367</v>
+        <v>19.33758500905889</v>
       </c>
       <c r="R3">
-        <v>263.094835518573</v>
+        <v>174.03826508153</v>
       </c>
       <c r="S3">
-        <v>0.1536007581774409</v>
+        <v>0.04103424973938449</v>
       </c>
       <c r="T3">
-        <v>0.153600758177441</v>
+        <v>0.04103424973938449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H4">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I4">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J4">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N4">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O4">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P4">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q4">
-        <v>4.594506458161999</v>
+        <v>3.426087310913334</v>
       </c>
       <c r="R4">
-        <v>41.35055812345799</v>
+        <v>30.83478579822</v>
       </c>
       <c r="S4">
-        <v>0.02414139778268323</v>
+        <v>0.007270138555517384</v>
       </c>
       <c r="T4">
-        <v>0.02414139778268324</v>
+        <v>0.007270138555517384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H5">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I5">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J5">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N5">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O5">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P5">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q5">
-        <v>30.322555348418</v>
+        <v>86.35865347740332</v>
       </c>
       <c r="R5">
-        <v>272.902998135762</v>
+        <v>777.22788129663</v>
       </c>
       <c r="S5">
-        <v>0.1593269869396225</v>
+        <v>0.183252590863268</v>
       </c>
       <c r="T5">
-        <v>0.1593269869396225</v>
+        <v>0.183252590863268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N6">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O6">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P6">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q6">
-        <v>4.916236231812777</v>
+        <v>16.507758128651</v>
       </c>
       <c r="R6">
-        <v>44.24612608631499</v>
+        <v>148.569823157859</v>
       </c>
       <c r="S6">
-        <v>0.02583189631935156</v>
+        <v>0.03502937255976341</v>
       </c>
       <c r="T6">
-        <v>0.02583189631935157</v>
+        <v>0.03502937255976341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.354819</v>
       </c>
       <c r="O7">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P7">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q7">
         <v>28.67068781546678</v>
@@ -883,10 +883,10 @@
         <v>258.036190339201</v>
       </c>
       <c r="S7">
-        <v>0.1506474058876833</v>
+        <v>0.06083904290368512</v>
       </c>
       <c r="T7">
-        <v>0.1506474058876833</v>
+        <v>0.06083904290368512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>19.321579</v>
       </c>
       <c r="I8">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J8">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N8">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O8">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P8">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q8">
-        <v>4.506165773327333</v>
+        <v>5.079656000152668</v>
       </c>
       <c r="R8">
-        <v>40.555491959946</v>
+        <v>45.716904001374</v>
       </c>
       <c r="S8">
-        <v>0.02367722004511585</v>
+        <v>0.01077900227990112</v>
       </c>
       <c r="T8">
-        <v>0.02367722004511586</v>
+        <v>0.01077900227990112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>19.321579</v>
       </c>
       <c r="I9">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J9">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N9">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O9">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P9">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q9">
-        <v>29.73952965679934</v>
+        <v>128.0388421229857</v>
       </c>
       <c r="R9">
-        <v>267.655766911194</v>
+        <v>1152.349579106871</v>
       </c>
       <c r="S9">
-        <v>0.15626353382076</v>
+        <v>0.2716977234517619</v>
       </c>
       <c r="T9">
-        <v>0.15626353382076</v>
+        <v>0.2716977234517619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H10">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N10">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O10">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P10">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q10">
-        <v>0.1651644047966667</v>
+        <v>0.8958990227210002</v>
       </c>
       <c r="R10">
-        <v>1.48647964317</v>
+        <v>8.063091204489</v>
       </c>
       <c r="S10">
-        <v>0.0008678406771315184</v>
+        <v>0.001901092831518633</v>
       </c>
       <c r="T10">
-        <v>0.0008678406771315186</v>
+        <v>0.001901092831518633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H11">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I11">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J11">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.354819</v>
       </c>
       <c r="O11">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P11">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q11">
-        <v>0.9632118687686668</v>
+        <v>1.555998155196778</v>
       </c>
       <c r="R11">
-        <v>8.668906818918</v>
+        <v>14.003983396771</v>
       </c>
       <c r="S11">
-        <v>0.005061105275331004</v>
+        <v>0.003301819584216712</v>
       </c>
       <c r="T11">
-        <v>0.005061105275331004</v>
+        <v>0.003301819584216712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H12">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I12">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J12">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N12">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O12">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P12">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q12">
-        <v>0.151387800092</v>
+        <v>0.2756800051726668</v>
       </c>
       <c r="R12">
-        <v>1.362490200828</v>
+        <v>2.481120046554</v>
       </c>
       <c r="S12">
-        <v>0.0007954528162592558</v>
+        <v>0.0005849914648137628</v>
       </c>
       <c r="T12">
-        <v>0.0007954528162592559</v>
+        <v>0.0005849914648137628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H13">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I13">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J13">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N13">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O13">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P13">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q13">
-        <v>0.9991203601880002</v>
+        <v>6.948846271815667</v>
       </c>
       <c r="R13">
-        <v>8.992083241692001</v>
+        <v>62.53961644634101</v>
       </c>
       <c r="S13">
-        <v>0.005249783032784193</v>
+        <v>0.01474541382415115</v>
       </c>
       <c r="T13">
-        <v>0.005249783032784193</v>
+        <v>0.01474541382415115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.846355333333333</v>
+        <v>5.888867</v>
       </c>
       <c r="H14">
-        <v>14.539066</v>
+        <v>17.666601</v>
       </c>
       <c r="I14">
-        <v>0.2681983040292798</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J14">
-        <v>0.2681983040292799</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N14">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O14">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P14">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q14">
-        <v>3.699360339334444</v>
+        <v>15.093796229769</v>
       </c>
       <c r="R14">
-        <v>33.29424305401</v>
+        <v>135.844166067921</v>
       </c>
       <c r="S14">
-        <v>0.01943793752530315</v>
+        <v>0.03202895313543933</v>
       </c>
       <c r="T14">
-        <v>0.01943793752530316</v>
+        <v>0.03202895313543933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.846355333333333</v>
+        <v>5.888867</v>
       </c>
       <c r="H15">
-        <v>14.539066</v>
+        <v>17.666601</v>
       </c>
       <c r="I15">
-        <v>0.2681983040292798</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J15">
-        <v>0.2681983040292799</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.354819</v>
       </c>
       <c r="O15">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P15">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q15">
-        <v>21.57406609545044</v>
+        <v>26.21491763335767</v>
       </c>
       <c r="R15">
-        <v>194.166594859054</v>
+        <v>235.934258700219</v>
       </c>
       <c r="S15">
-        <v>0.1133588811209382</v>
+        <v>0.05562791199421571</v>
       </c>
       <c r="T15">
-        <v>0.1133588811209382</v>
+        <v>0.05562791199421571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.846355333333333</v>
+        <v>5.888867</v>
       </c>
       <c r="H16">
-        <v>14.539066</v>
+        <v>17.666601</v>
       </c>
       <c r="I16">
-        <v>0.2681983040292798</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J16">
-        <v>0.2681983040292799</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N16">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O16">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P16">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q16">
-        <v>3.390791279809333</v>
+        <v>4.644561180634001</v>
       </c>
       <c r="R16">
-        <v>30.517121518284</v>
+        <v>41.801050625706</v>
       </c>
       <c r="S16">
-        <v>0.01781659071095909</v>
+        <v>0.009855733449999269</v>
       </c>
       <c r="T16">
-        <v>0.0178165907109591</v>
+        <v>0.009855733449999269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.846355333333333</v>
+        <v>5.888867</v>
       </c>
       <c r="H17">
-        <v>14.539066</v>
+        <v>17.666601</v>
       </c>
       <c r="I17">
-        <v>0.2681983040292798</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J17">
-        <v>0.2681983040292799</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N17">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O17">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P17">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q17">
-        <v>22.37834622569734</v>
+        <v>117.071753622661</v>
       </c>
       <c r="R17">
-        <v>201.405116031276</v>
+        <v>1053.645782603949</v>
       </c>
       <c r="S17">
-        <v>0.1175848946720794</v>
+        <v>0.2484256215721613</v>
       </c>
       <c r="T17">
-        <v>0.1175848946720794</v>
+        <v>0.2484256215721613</v>
       </c>
     </row>
   </sheetData>
